--- a/progetti-per-test/Progetto-Semplice-V2/confronto-pratiche.xlsx
+++ b/progetti-per-test/Progetto-Semplice-V2/confronto-pratiche.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10\Desktop\Tirocinio-Aggiornato\progetti-per-test\Progetto-Semplice-V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10\Desktop\Tirocinio-aggiornato\progetti-per-test\Progetto-Semplice-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -982,7 +982,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1089,17 +1089,17 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>18.75</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B20" s="1">
         <f>SUM(E4:E9)</f>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1">
         <f>SUM(F4:F9)</f>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="D20" s="1">
         <f>SUM(B20,C20)</f>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
